--- a/data/trans_dic/IP1013-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1013-Edad-trans_dic.xlsx
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,01</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,16</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,0; 0,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,26</t>
+          <t>0,0; 0,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -867,32 +867,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0; 0,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,23; 2,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0; 0,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,61</t>
+          <t>0; 0,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,73</t>
+          <t>0,13; 1,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0; 0,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1013-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1013-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,23%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>0; 1,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0; 0,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0; 1,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>0; 1,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0; 0,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,91</t>
+          <t>0; 0,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,8</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,32%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,61</t>
+          <t>0,12; 1,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,73</t>
+          <t>0,0; 1,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0; 0,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,01</t>
+          <t>0; 0,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0; 0,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0; 1,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,16</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,26</t>
+          <t>0,0; 1,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0; 0,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -977,32 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0; 0,62</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 2,99</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,81</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,67</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,79</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,78</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,32</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 1,64</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,47</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,71</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>0; 0,18</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,65</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 0,81</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,87</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,38</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 0,59</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,41</t>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 0,89</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,79</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 0,55</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>

--- a/data/trans_dic/IP1013-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1013-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,19</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,33</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -815,27 +815,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,86</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,5</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,03</t>
+          <t>0,12; 1,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,96</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,99</t>
+          <t>0,35; 3,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,64</t>
+          <t>0,18; 1,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,47</t>
+          <t>0,0; 0,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,7</t>
+          <t>0,08; 0,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,62</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,89</t>
+          <t>0,09; 0,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,79</t>
+          <t>0,08; 0,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,39</t>
+          <t>0,04; 0,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,55</t>
+          <t>0,09; 0,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,43</t>
+          <t>0,04; 0,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1013-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1013-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,34 +685,34 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 1,18</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,88</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,76</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,05</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>0; 0,93</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 1,02</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,18</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,88</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,3</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 0,56</t>
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,17</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,27%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,6</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,09</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,46</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,49</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,52</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>0; 0,5</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,98</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,96</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,17</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,15</t>
+          <t>0,12; 1,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,87</t>
+          <t>0,0; 0,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -905,34 +905,34 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 1,0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,39</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,7</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,9</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>0; 0,84</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>0; 0,73</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,0</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,56</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,7</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
           <t>0; 0,48</t>
@@ -940,7 +940,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,05</t>
+          <t>0,0; 1,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -967,22 +967,22 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>1,11%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1015,34 +1015,34 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0; 0,67</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,79</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,78</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>0; 0,62</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 3,15</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 2,99</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>0; 0,81</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,67</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,79</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,78</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
           <t>0; 0,32</t>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,69</t>
+          <t>0,18; 1,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,09%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,26%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,54</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>0,09; 0,81</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,87</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,47</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>0,08; 0,71</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>0; 0,18</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,65</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 0,79</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,83</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,37</t>
+          <t>0,04; 0,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,57</t>
+          <t>0,09; 0,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,38</t>
+          <t>0,04; 0,41</t>
         </is>
       </c>
     </row>
